--- a/src/main/resources/com/sample/dtables/Sample.xlsx
+++ b/src/main/resources/com/sample/dtables/Sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjin/RHDM/PersolCarrier/helloworld/src/main/resources/com/sample/dtables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjin/RHDM/PersolCarrier/helloworld-dm/src/main/resources/com/sample/dtables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554B1B93-11A1-4448-B46A-E4D86957D7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74342966-C8C0-1845-91D8-17E5E89AEEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Times New Roman"/>
             <family val="1"/>
           </rPr>
@@ -104,14 +104,61 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Times New Roman"/>
             <family val="1"/>
           </rPr>
-          <t>(and their types).
-The "RuleTable" keyword must appear on top of the first condition column.
-You can have as many "RuleTables" as you like, just separate them by a line.
-Note that all the columns to the left of this column will be ignored.</t>
+          <t xml:space="preserve">(and their types).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">The "RuleTable" keyword must appear on top of the first condition column.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">You can have as many "RuleTables" as you like, just separate them by a line.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t>Note that all the columns to the left of this column will be ignored.</t>
         </r>
       </text>
     </comment>
@@ -274,7 +321,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -328,6 +375,19 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1030,15 +1090,15 @@
   <dimension ref="B1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D8" sqref="D8:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="0.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="2" customWidth="1"/>
